--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -9,22 +9,16 @@
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
     <sheet name="Member" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Statement" sheetId="3" r:id="rId3"/>
+    <sheet name="Exp" sheetId="4" r:id="rId4"/>
+    <sheet name="Syntax" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C#示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
   <si>
     <t>元数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attributes:Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成员列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,23 +96,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent:TypeRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>declaring_type:TypeRef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,23 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interfaces:Interface[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributes:Attribute[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>field_initializer:Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字段初始化表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method_body:Syntax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,12 +167,491 @@
 1&lt;&lt;9 移除事件 event_remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_body:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(Type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员(Member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childrens:Statement[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真子语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_statement:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else_statement:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假子语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量声明语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incrementors:Exp[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if语句(IfStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for语句(ForStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转语句块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interfaces:TypeSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终结器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finally:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_while语句(DoWhileStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while语句(WhileStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch语句(SwitchStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break语句(BreakStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return语句(ReturnStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw语句(ThrowStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try语句(TryStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"=,+=,-=,*=,/="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatorToken:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&amp;&amp;,||,*,/,%,+,-,&lt;&lt;,&gt;&gt;,&lt;,&gt;,&lt;=,&gt;=,is,as,==,!=,&amp;,^,|"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operand:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"++,--"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.Play();</t>
+  </si>
+  <si>
+    <t>调用基类方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用此类方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this.Play();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base表达式(BaseExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this表达式(ThisExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用表达式(MethodExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caller:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args:Exp[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员访问表达式(FieldExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量表达式(ConstExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识符表达式(IndifierExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识符名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名空间，类型名等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象创建表达式(NewObjectExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw表达式(ThrowExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值表达式(AssignmentExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制表达式(BinaryExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀表达式(PrefixUnaryExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀表达式(PostfixUnaryExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号表达式(ParenthesizedExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引访问表达式(ElementAccessExp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型语法(TypeSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes:AttributeSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declaring_type:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes:AttributeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性语法(AttributeSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_space:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args:string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型参数声明语法(GenericSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic_args:GenericSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sections:SwitchSectionSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catches:CatchClauseSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args:string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量说明语法(VariableDeclaratorSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量声明语法(VariableDeclarationSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declaration:VariableDeclarationSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initializer:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variables:VariableDeclaratorSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch子句语法(CatchClauseSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch子句语法(SwitchSectionSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statements:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label:Exp[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local变量声明语句(LocalDeclarationStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}块语句(BlockStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +662,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -249,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +707,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,128 +1011,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="4" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="67.5">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,127 +1154,139 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="81">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="81">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="11" spans="1:5" ht="135">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="81">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="283.5">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -816,14 +1295,718 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>元数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,107 +543,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>泛型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sections:SwitchSectionSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catches:CatchClauseSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args:string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量说明语法(VariableDeclaratorSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量声明语法(VariableDeclarationSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declaration:VariableDeclarationSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initializer:Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variables:VariableDeclaratorSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch子句语法(CatchClauseSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch子句语法(SwitchSectionSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statements:Statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label:Exp[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local变量声明语句(LocalDeclarationStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}块语句(BlockStatement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>generic_args:GenericSyntax[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泛型参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sections:SwitchSectionSyntax[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catches:CatchClauseSyntax[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName:TypeSyntax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>args:string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量说明语法(VariableDeclaratorSyntax)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量声明语法(VariableDeclarationSyntax)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>declaration:VariableDeclarationSyntax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initializer:Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>variables:VariableDeclaratorSyntax[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catch子句语法(CatchClauseSyntax)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identifier:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>block:Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量标识符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语句块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch子句语法(SwitchSectionSyntax)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statements:Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label:Exp[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local变量声明语句(LocalDeclarationStatement)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}块语句(BlockStatement)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1133,10 +1133,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
         <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1151,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1283,9 +1283,18 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1324,7 +1333,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -1376,7 +1385,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -1387,7 +1396,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -1465,7 +1474,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -1512,7 +1521,7 @@
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -1891,27 +1900,27 @@
         <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1919,22 +1928,22 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1942,51 +1951,51 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
         <v>148</v>
-      </c>
-      <c r="C19" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
@@ -705,14 +705,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="B11:C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1025,24 +1025,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -1053,7 +1053,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="67.5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>61</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>151</v>
       </c>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1166,24 +1166,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>117</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1224,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="81">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="135">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>151</v>
       </c>
@@ -1318,21 +1318,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B2" t="s">
@@ -1543,13 +1543,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1574,16 +1574,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1833,16 +1833,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
@@ -1947,7 +1947,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
@@ -1999,10 +1999,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
   <si>
     <t>元数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,46 +523,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>泛型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型参数声明语法(GenericSyntax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sections:SwitchSectionSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catches:CatchClauseSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName:TypeSyntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>args:string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泛型参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>constraint:TypeSyntax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泛型参数声明语法(GenericSyntax)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泛型参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sections:SwitchSectionSyntax[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catches:CatchClauseSyntax[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName:TypeSyntax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>args:string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变量说明语法(VariableDeclaratorSyntax)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,6 +640,34 @@
   </si>
   <si>
     <t>generic_args:GenericSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是泛型定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是泛型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是泛型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenericType:bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenericTypeDefinition:bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenericParameter:bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args:TypeSyntax[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,10 +1157,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1286,10 +1310,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1357,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1373,7 +1397,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -1385,7 +1409,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -1396,7 +1420,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -1474,7 +1498,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -1521,7 +1545,7 @@
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -1820,16 +1844,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42.25" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1847,7 +1872,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B2" t="s">
@@ -1858,7 +1883,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>120</v>
       </c>
@@ -1867,82 +1892,86 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1951,71 +1980,95 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
         <v>146</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B2" t="s">
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>120</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>157</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>154</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>155</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>156</v>
       </c>

--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
   <si>
     <t>元数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +668,10 @@
   </si>
   <si>
     <t>args:TypeSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic_args:GenericSyntax[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1157,7 +1161,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -1846,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2058,6 +2062,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -2065,7 +2070,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="164">
   <si>
     <t>元数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
 3 方法
 4 属性
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>members:Member[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -671,7 +667,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>generic_args:GenericSyntax[]</t>
+    <t>members:Member[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_abstract:bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_generic_type_definition:bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是泛型定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic_parameter_definitions:GenericSyntax[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,16 +1059,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="4" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1057,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1066,12 +1086,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1113,7 +1133,7 @@
     <row r="6" spans="1:5" ht="67.5">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1125,7 +1145,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1134,7 +1154,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1143,7 +1163,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1152,7 +1172,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1161,10 +1181,26 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
         <v>158</v>
       </c>
-      <c r="C11" t="s">
-        <v>125</v>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1207,12 +1243,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1224,7 +1260,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1275,7 +1311,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1284,40 +1320,40 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="135">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1361,212 +1397,212 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1617,148 +1653,148 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
         <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1766,78 +1802,78 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
         <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
         <v>103</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1887,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1866,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1877,7 +1913,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1889,7 +1925,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1898,42 +1934,42 @@
     <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1945,38 +1981,38 @@
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
         <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1984,22 +2020,22 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2007,51 +2043,51 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
         <v>146</v>
-      </c>
-      <c r="C22" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3">

--- a/Documents/UL语言规范.xlsx
+++ b/Documents/UL语言规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
@@ -122,15 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0 构造函数
-1 事件
-2 字段
-3 方法
-4 属性
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>field_initializer:Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,6 +683,14 @@
   </si>
   <si>
     <t>generic_parameter_definitions:GenericSyntax[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0 事件
+1 字段
+2 方法
+3 属性
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1077,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1086,12 +1085,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1133,7 +1132,7 @@
     <row r="6" spans="1:5" ht="67.5">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1145,7 +1144,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1154,7 +1153,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1163,7 +1162,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1172,7 +1171,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1181,26 +1180,26 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
         <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
         <v>161</v>
-      </c>
-      <c r="C13" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1217,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1234,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1243,12 +1242,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1260,7 +1259,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1296,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="81">
+    <row r="7" spans="1:5" ht="67.5">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>12</v>
@@ -1305,13 +1304,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1320,40 +1319,40 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="135">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1397,212 +1396,212 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1653,148 +1652,148 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1802,78 +1801,78 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
         <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1913,7 +1912,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1925,7 +1924,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1934,42 +1933,42 @@
     <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1981,38 +1980,38 @@
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2020,22 +2019,22 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2043,51 +2042,51 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
         <v>145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3">
